--- a/datasets/metadata.xlsx
+++ b/datasets/metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,31 +496,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>item_serial</t>
+          <t>order_revenue</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>box_type</t>
+          <t>item_serial</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>int64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>delivery_region</t>
+          <t>box_type</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,58 +532,70 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>distance_(miles)</t>
+          <t>delivery_region</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>category</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>order_week</t>
+          <t>distance_(miles)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UInt32</t>
+          <t>int64</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>order_month</t>
+          <t>order_week</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>UInt32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>order_year</t>
+          <t>order_month</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>int32</t>
+          <t>object</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>order_year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>financial_quarter</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>object</t>
         </is>

--- a/datasets/metadata.xlsx
+++ b/datasets/metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,31 +496,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>order_revenue</t>
+          <t>item_serial</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>item_serial</t>
+          <t>box_type</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>category</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>box_type</t>
+          <t>delivery_region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,70 +532,58 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>delivery_region</t>
+          <t>distance_(miles)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>int64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>distance_(miles)</t>
+          <t>order_week</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>UInt32</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>order_week</t>
+          <t>order_month</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UInt32</t>
+          <t>object</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>order_month</t>
+          <t>order_year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>int32</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>order_year</t>
+          <t>financial_quarter</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>int32</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>financial_quarter</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>object</t>
         </is>
